--- a/Basededados/GREECE_S1.xlsx
+++ b/Basededados/GREECE_S1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gols_casa_FT</t>
+          <t>FT_Goals_H</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Fora_FT</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>B365H</t>
+          <t>FT_Odds_H</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>B365D</t>
+          <t>FT_Odds_D</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>B365A</t>
+          <t>FT_Odds_A</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -11073,6 +11073,706 @@
       </c>
       <c r="AB106" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>OFI Crete</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>22</v>
+      </c>
+      <c r="M107" t="n">
+        <v>12</v>
+      </c>
+      <c r="N107" t="n">
+        <v>7</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3</v>
+      </c>
+      <c r="P107" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>14</v>
+      </c>
+      <c r="R107" t="n">
+        <v>8</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Levadeiakos</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>14</v>
+      </c>
+      <c r="M108" t="n">
+        <v>8</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3</v>
+      </c>
+      <c r="P108" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>12</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Giannina</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AEK</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>21</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="n">
+        <v>5</v>
+      </c>
+      <c r="P109" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>15</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>15</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5</v>
+      </c>
+      <c r="P110" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>16</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>14</v>
+      </c>
+      <c r="M111" t="n">
+        <v>15</v>
+      </c>
+      <c r="N111" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" t="n">
+        <v>5</v>
+      </c>
+      <c r="P111" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>14</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="n">
+        <v>3</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>15</v>
+      </c>
+      <c r="M112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>8</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2</v>
+      </c>
+      <c r="T112" t="n">
+        <v>4</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>13</v>
+      </c>
+      <c r="M113" t="n">
+        <v>6</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>20</v>
+      </c>
+      <c r="R113" t="n">
+        <v>9</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Basededados/GREECE_S1.xlsx
+++ b/Basededados/GREECE_S1.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fora</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
